--- a/MPTrx/Car Insurance Template.xlsx
+++ b/MPTrx/Car Insurance Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="86">
   <si>
     <t>Customer</t>
   </si>
@@ -196,9 +196,6 @@
     <t>Price of car [licenseplate], according to the catalogue of the manufacturer, in Euro.</t>
   </si>
   <si>
-    <t>TParty</t>
-  </si>
-  <si>
     <t>[TParties]</t>
   </si>
   <si>
@@ -208,9 +205,6 @@
     <t>[Concerns]</t>
   </si>
   <si>
-    <t>Concern</t>
-  </si>
-  <si>
     <t>Beslissing</t>
   </si>
   <si>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>CI_Tpl_v0.1</t>
+  </si>
+  <si>
+    <t>ttIsaTParty</t>
+  </si>
+  <si>
+    <t>ttIsaConcern</t>
   </si>
 </sst>
 </file>
@@ -743,13 +743,13 @@
         <v>34</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -784,206 +784,249 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="14" style="14" customWidth="1"/>
-    <col min="4" max="4" width="64.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" style="14" customWidth="1"/>
+    <col min="1" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="5" max="5" width="64.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" style="23" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="2" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
-        <f>IF(OR($B3="",$C3=""),"",CONCATENATE("SHR_",$B3,"_",$C3))</f>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("SHR_",$C3,"_",$D3))</f>
         <v>SHR_CI_Tpl_v0.1_Insurer</v>
       </c>
-      <c r="B3" s="21" t="str">
-        <f>IF($C3="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="4" t="str">
+        <f>IF($A3="","",$A3)</f>
+        <v>SHR_CI_Tpl_v0.1_Insurer</v>
+      </c>
+      <c r="C3" s="21" t="str">
+        <f>IF($D3="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
-        <f t="shared" ref="A4:A11" si="0">IF(OR($B4="",$C4=""),"",CONCATENATE("SHR_",$B4,"_",$C4))</f>
+        <f t="shared" ref="A4:A11" si="0">IF(OR($C4="",$D4=""),"",CONCATENATE("SHR_",$C4,"_",$D4))</f>
         <v>SHR_CI_Tpl_v0.1_RDW</v>
       </c>
-      <c r="B4" s="21" t="str">
-        <f>IF($C4="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="4" t="str">
+        <f t="shared" ref="B4:B11" si="1">IF($A4="","",$A4)</f>
+        <v>SHR_CI_Tpl_v0.1_RDW</v>
+      </c>
+      <c r="C4" s="21" t="str">
+        <f>IF($D4="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="14"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SHR_CI_Tpl_v0.1_AttrProvider</v>
       </c>
-      <c r="B5" s="21" t="str">
-        <f>IF($C5="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_CI_Tpl_v0.1_AttrProvider</v>
+      </c>
+      <c r="C5" s="21" t="str">
+        <f>IF($D5="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
-        <f>IF(OR($B6="",$C6=""),"",CONCATENATE("SHR_",$B6,"_",$C6))</f>
+        <f>IF(OR($C6="",$D6=""),"",CONCATENATE("SHR_",$C6,"_",$D6))</f>
         <v>SHR_CI_Tpl_v0.1_Customer</v>
       </c>
-      <c r="B6" s="21" t="str">
-        <f>IF($C6="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_CI_Tpl_v0.1_Customer</v>
+      </c>
+      <c r="C6" s="21" t="str">
+        <f>IF($D6="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F6" s="10"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SHR_CI_Tpl_v0.1_Driver</v>
       </c>
-      <c r="B7" s="21" t="str">
-        <f>IF($C7="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_CI_Tpl_v0.1_Driver</v>
+      </c>
+      <c r="C7" s="21" t="str">
+        <f>IF($D7="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SHR_CI_Tpl_v0.1_PrevInsurer</v>
       </c>
-      <c r="B8" s="21" t="str">
-        <f>IF($C8="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_CI_Tpl_v0.1_PrevInsurer</v>
+      </c>
+      <c r="C8" s="21" t="str">
+        <f>IF($D8="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="E8" s="18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>SHR_CI_Tpl_v0.1_Computer</v>
       </c>
-      <c r="B9" s="21" t="str">
-        <f>IF($C9="","",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SHR_CI_Tpl_v0.1_Computer</v>
+      </c>
+      <c r="C9" s="21" t="str">
+        <f>IF($D9="","",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B10" s="21" t="str">
-        <f>IF($C10="","",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C10" s="21" t="str">
+        <f>IF($D10="","",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="18"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="B11" s="21" t="str">
-        <f>IF($C11="","",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
+      <c r="B11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="C11" s="21" t="str">
+        <f>IF($D11="","",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -992,241 +1035,312 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="14" customWidth="1"/>
-    <col min="5" max="5" width="86.6640625" customWidth="1"/>
+    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" style="14" customWidth="1"/>
+    <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="25" t="str">
+        <f>IF($A2="","",$A2)</f>
+        <v>TText</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="str">
-        <f>IF(OR($B3="",$C3=""),"",CONCATENATE("Conc_",$B3,"_",$C3))</f>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
         <v>Conc_CI_Tpl_v0.1_Beslissing</v>
       </c>
-      <c r="B3" s="15" t="str">
-        <f>IF(AND($E3="",$C3=""),"",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="17" t="str">
+        <f t="shared" ref="B3:B18" si="0">IF($A3="","",$A3)</f>
+        <v>Conc_CI_Tpl_v0.1_Beslissing</v>
+      </c>
+      <c r="C3" s="15" t="str">
+        <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="17" t="str">
+        <f t="shared" ref="A4:A18" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Conc_",$C4,"_",$D4))</f>
+        <v>Conc_CI_Tpl_v0.1_Customer Agreement</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_CI_Tpl_v0.1_Customer Agreement</v>
+      </c>
+      <c r="C4" s="15" t="str">
+        <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="17" t="str">
+        <f t="shared" si="1"/>
+        <v>Conc_CI_Tpl_v0.1_Eigen Risico</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v>Conc_CI_Tpl_v0.1_Eigen Risico</v>
+      </c>
+      <c r="C5" s="15" t="str">
+        <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
+        <v>CI_Tpl_v0.1</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="str">
-        <f t="shared" ref="A4:A18" si="0">IF(OR($B4="",$C4=""),"",CONCATENATE("Conc_",$B4,"_",$C4))</f>
-        <v>Conc_CI_Tpl_v0.1_Customer Agreement</v>
-      </c>
-      <c r="B4" s="15" t="str">
-        <f>IF(AND($E4="",$C4=""),"",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_CI_Tpl_v0.1_Eigen Risico</v>
-      </c>
-      <c r="B5" s="15" t="str">
-        <f>IF(AND($E5="",$C5=""),"",'#Scopes'!$A$3)</f>
-        <v>CI_Tpl_v0.1</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B6" s="15" t="str">
-        <f>IF(AND($E6="",$C6=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C6" s="15" t="str">
+        <f>IF(AND($F6="",$D6=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B7" s="15" t="str">
-        <f>IF(AND($E7="",$C7=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-      <c r="D7" s="11"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C7" s="15" t="str">
+        <f>IF(AND($F7="",$D7=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B8" s="15" t="str">
-        <f>IF(AND($E8="",$C8=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C8" s="15" t="str">
+        <f>IF(AND($F8="",$D8=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B9" s="15" t="str">
-        <f>IF(AND($E9="",$C9=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C9" s="15" t="str">
+        <f>IF(AND($F9="",$D9=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B10" s="15" t="str">
-        <f>IF(AND($E10="",$C10=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C10" s="15" t="str">
+        <f>IF(AND($F10="",$D10=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B11" s="15" t="str">
-        <f>IF(AND($E11="",$C11=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C11" s="15" t="str">
+        <f>IF(AND($F11="",$D11=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B12" s="15" t="str">
-        <f>IF(AND($E12="",$C12=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C12" s="15" t="str">
+        <f>IF(AND($F12="",$D12=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B13" s="15" t="str">
-        <f>IF(AND($E13="",$C13=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C13" s="15" t="str">
+        <f>IF(AND($F13="",$D13=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B14" s="15" t="str">
-        <f>IF(AND($E14="",$C14=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C14" s="15" t="str">
+        <f>IF(AND($F14="",$D14=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B15" s="15" t="str">
-        <f>IF(AND($E15="",$C15=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B15" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C15" s="15" t="str">
+        <f>IF(AND($F15="",$D15=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B16" s="15" t="str">
-        <f>IF(AND($E16="",$C16=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B16" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C16" s="15" t="str">
+        <f>IF(AND($F16="",$D16=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B17" s="15" t="str">
-        <f>IF(AND($E17="",$C17=""),"",'#Scopes'!$A$3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B17" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C17" s="15" t="str">
+        <f>IF(AND($F17="",$D17=""),"",'#Scopes'!$A$3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="B18" s="15" t="str">
-        <f>IF(AND($E18="",$C18=""),"",'#Scopes'!$A$3)</f>
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="B18" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C18" s="15" t="str">
+        <f>IF(AND($F18="",$D18=""),"",'#Scopes'!$A$3)</f>
         <v/>
       </c>
     </row>
@@ -1239,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1274,7 +1388,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1350,7 +1464,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1394,7 +1508,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1410,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>48</v>
@@ -1429,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>47</v>
@@ -1450,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>52</v>
@@ -1476,7 +1590,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1498,7 +1612,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1625,13 +1739,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1644,13 +1758,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1663,13 +1777,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1682,13 +1796,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">

--- a/MPTrx/Car Insurance Template.xlsx
+++ b/MPTrx/Car Insurance Template.xlsx
@@ -202,9 +202,6 @@
     <t>tPartyReqdOrg</t>
   </si>
   <si>
-    <t>[Concerns]</t>
-  </si>
-  <si>
     <t>Beslissing</t>
   </si>
   <si>
@@ -274,7 +271,10 @@
     <t>ttIsaTParty</t>
   </si>
   <si>
-    <t>ttIsaConcern</t>
+    <t>[Objectives]</t>
+  </si>
+  <si>
+    <t>ttIsaObjective</t>
   </si>
 </sst>
 </file>
@@ -743,13 +743,13 @@
         <v>34</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -805,7 +805,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>38</v>
@@ -814,7 +814,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>60</v>
@@ -905,7 +905,7 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
@@ -1038,12 +1038,13 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.44140625" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" style="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.109375" style="14" customWidth="1"/>
@@ -1052,7 +1053,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="25" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B1" s="25" t="s">
         <v>85</v>
@@ -1093,71 +1094,71 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="17" t="str">
-        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Conc_",$C3,"_",$D3))</f>
-        <v>Conc_CI_Tpl_v0.1_Beslissing</v>
+        <f>IF(OR($C3="",$D3=""),"",CONCATENATE("Obj_",$C3,"_",$D3))</f>
+        <v>Obj_CI_Tpl_v0.1_Beslissing</v>
       </c>
       <c r="B3" s="17" t="str">
-        <f t="shared" ref="B3:B18" si="0">IF($A3="","",$A3)</f>
-        <v>Conc_CI_Tpl_v0.1_Beslissing</v>
+        <f t="shared" ref="B3" si="0">IF($A3="","",$A3)</f>
+        <v>Obj_CI_Tpl_v0.1_Beslissing</v>
       </c>
       <c r="C3" s="15" t="str">
         <f>IF(AND($F3="",$D3=""),"",'#Scopes'!$A$3)</f>
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="str">
-        <f t="shared" ref="A4:A18" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Conc_",$C4,"_",$D4))</f>
-        <v>Conc_CI_Tpl_v0.1_Customer Agreement</v>
+        <f t="shared" ref="A4:A18" si="1">IF(OR($C4="",$D4=""),"",CONCATENATE("Obj_",$C4,"_",$D4))</f>
+        <v>Obj_CI_Tpl_v0.1_Customer Agreement</v>
       </c>
       <c r="B4" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_CI_Tpl_v0.1_Customer Agreement</v>
+        <f t="shared" ref="B4:B18" si="2">IF($A4="","",$A4)</f>
+        <v>Obj_CI_Tpl_v0.1_Customer Agreement</v>
       </c>
       <c r="C4" s="15" t="str">
         <f>IF(AND($F4="",$D4=""),"",'#Scopes'!$A$3)</f>
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Conc_CI_Tpl_v0.1_Eigen Risico</v>
+        <v>Obj_CI_Tpl_v0.1_Eigen Risico</v>
       </c>
       <c r="B5" s="17" t="str">
-        <f t="shared" si="0"/>
-        <v>Conc_CI_Tpl_v0.1_Eigen Risico</v>
+        <f t="shared" si="2"/>
+        <v>Obj_CI_Tpl_v0.1_Eigen Risico</v>
       </c>
       <c r="C5" s="15" t="str">
         <f>IF(AND($F5="",$D5=""),"",'#Scopes'!$A$3)</f>
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1166,7 +1167,7 @@
         <v/>
       </c>
       <c r="B6" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C6" s="15" t="str">
@@ -1181,7 +1182,7 @@
         <v/>
       </c>
       <c r="B7" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C7" s="15" t="str">
@@ -1196,7 +1197,7 @@
         <v/>
       </c>
       <c r="B8" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C8" s="15" t="str">
@@ -1210,7 +1211,7 @@
         <v/>
       </c>
       <c r="B9" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C9" s="15" t="str">
@@ -1224,7 +1225,7 @@
         <v/>
       </c>
       <c r="B10" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C10" s="15" t="str">
@@ -1238,7 +1239,7 @@
         <v/>
       </c>
       <c r="B11" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C11" s="15" t="str">
@@ -1252,7 +1253,7 @@
         <v/>
       </c>
       <c r="B12" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C12" s="15" t="str">
@@ -1266,7 +1267,7 @@
         <v/>
       </c>
       <c r="B13" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C13" s="15" t="str">
@@ -1280,7 +1281,7 @@
         <v/>
       </c>
       <c r="B14" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C14" s="15" t="str">
@@ -1294,7 +1295,7 @@
         <v/>
       </c>
       <c r="B15" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C15" s="15" t="str">
@@ -1308,7 +1309,7 @@
         <v/>
       </c>
       <c r="B16" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C16" s="15" t="str">
@@ -1322,7 +1323,7 @@
         <v/>
       </c>
       <c r="B17" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C17" s="15" t="str">
@@ -1336,7 +1337,7 @@
         <v/>
       </c>
       <c r="B18" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="C18" s="15" t="str">
@@ -1388,7 +1389,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1464,7 +1465,7 @@
         <v>50</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1508,7 +1509,7 @@
         <v>49</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1524,7 +1525,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>48</v>
@@ -1543,7 +1544,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>47</v>
@@ -1564,7 +1565,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>52</v>
@@ -1590,7 +1591,7 @@
         <v>45</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1612,7 +1613,7 @@
         <v>46</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1739,13 +1740,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1758,13 +1759,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1777,13 +1778,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1796,13 +1797,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">

--- a/MPTrx/Car Insurance Template.xlsx
+++ b/MPTrx/Car Insurance Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="13800" windowHeight="5472" tabRatio="703" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Scopes" sheetId="1" r:id="rId1"/>
@@ -151,9 +151,6 @@
     <t>TTPhrase</t>
   </si>
   <si>
-    <t>[Organization,]</t>
-  </si>
-  <si>
     <t>[postcode]  [housenumber]</t>
   </si>
   <si>
@@ -199,9 +196,6 @@
     <t>[TParties]</t>
   </si>
   <si>
-    <t>tPartyReqdOrg</t>
-  </si>
-  <si>
     <t>Beslissing</t>
   </si>
   <si>
@@ -275,6 +269,12 @@
   </si>
   <si>
     <t>ttIsaObjective</t>
+  </si>
+  <si>
+    <t>tPartyReqdOrgRef</t>
+  </si>
+  <si>
+    <t>OrgRef</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -403,12 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -742,14 +736,14 @@
       <c r="C1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="24"/>
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>36</v>
@@ -757,14 +751,14 @@
       <c r="C2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>2</v>
@@ -773,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -786,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,16 +790,16 @@
     <col min="3" max="3" width="14.21875" style="14" customWidth="1"/>
     <col min="4" max="4" width="14" style="14" customWidth="1"/>
     <col min="5" max="5" width="64.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="23" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="14" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>38</v>
@@ -814,10 +808,10 @@
         <v>39</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G1" s="6"/>
     </row>
@@ -829,7 +823,7 @@
         <f>IF($A2="","",$A2)</f>
         <v>TText</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -838,8 +832,8 @@
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>44</v>
+      <c r="F2" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="G2" s="6"/>
     </row>
@@ -862,7 +856,7 @@
       <c r="E3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="7"/>
@@ -886,7 +880,7 @@
       <c r="E4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="14"/>
@@ -905,12 +899,12 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
@@ -931,7 +925,7 @@
       <c r="E6" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="7"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1025,7 +1019,7 @@
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="18"/>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
       <c r="G11" s="8"/>
     </row>
   </sheetData>
@@ -1037,8 +1031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,12 +1045,12 @@
     <col min="6" max="6" width="86.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>85</v>
+    <row r="1" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>83</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>38</v>
@@ -1071,11 +1065,11 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:6" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="23" t="str">
         <f>IF($A2="","",$A2)</f>
         <v>TText</v>
       </c>
@@ -1106,13 +1100,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -1129,13 +1123,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1152,13 +1146,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1389,7 +1383,7 @@
         <v>41</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -1456,16 +1450,16 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -1486,7 +1480,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J4" s="7"/>
     </row>
@@ -1506,10 +1500,10 @@
         <v>15</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.3">
@@ -1525,10 +1519,10 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.3">
@@ -1544,10 +1538,10 @@
         <v>9</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
@@ -1565,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7"/>
     </row>
@@ -1588,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1610,10 +1604,10 @@
         <v>7</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1651,7 +1645,7 @@
         <v>7</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.3">
@@ -1670,7 +1664,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.3">
@@ -1689,7 +1683,7 @@
         <v>7</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1708,7 +1702,7 @@
         <v>7</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:23" ht="28.8" x14ac:dyDescent="0.3">
@@ -1727,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1740,13 +1734,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1759,13 +1753,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -1778,13 +1772,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
@@ -1797,13 +1791,13 @@
         <v>CI_Tpl_v0.1</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
